--- a/Selenium_Projects/DataDrivenTest.xlsx
+++ b/Selenium_Projects/DataDrivenTest.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Test Passed</t>
+          <t>Test Failed</t>
         </is>
       </c>
     </row>

--- a/Selenium_Projects/DataDrivenTest.xlsx
+++ b/Selenium_Projects/DataDrivenTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
